--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,35 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03DFCA9-B3ED-4EC0-AE71-2EE8F9DF0CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C9D418-DF33-4A44-B387-7FB2D78C3507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="トップページ" sheetId="1" r:id="rId2"/>
     <sheet name="ログインページ" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="運営会社ページ" sheetId="5" r:id="rId4"/>
+    <sheet name="プライバシーポリシーページ" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="a" localSheetId="4">#REF!</definedName>
+    <definedName name="a">#REF!</definedName>
+    <definedName name="aaa" localSheetId="4">#REF!</definedName>
+    <definedName name="aaa">#REF!</definedName>
+    <definedName name="aaaa" localSheetId="4">#REF!</definedName>
+    <definedName name="aaaa">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
+    <definedName name="あああ">#REF!</definedName>
+    <definedName name="ああああ">#REF!</definedName>
+    <definedName name="プライバシーポリシー">#REF!</definedName>
+    <definedName name="プライページ２">#REF!</definedName>
+    <definedName name="ログインページ漢" localSheetId="4">#REF!</definedName>
+    <definedName name="ログインページ漢">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -193,10 +225,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -269,6 +297,10 @@
     <rPh sb="24" eb="26">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>email</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -852,27 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -900,8 +911,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -910,13 +948,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3931,6 +3963,2628 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ログイン入力フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB03F7B4-C9CE-4C1A-9A31-DCDD04BD2A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5276849"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281C1F65-A5AD-4044-8D4A-E0ED519A7131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="876300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE270D4B-7534-4349-999A-4FA463AE85B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFBC733-1E95-4D40-8529-D5544EC6DA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33339D50-6A5F-4F52-823E-6D3F93592CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4810125"/>
+          <a:ext cx="942975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370D5C2D-F85B-4B7C-A835-AC7DD5DA1002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5010150"/>
+          <a:ext cx="1028700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5025C9F9-B98F-4CD8-B7D9-7C123B81BB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5257800"/>
+          <a:ext cx="1800225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487B2905-050A-4297-B591-025EA9B7E6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5219700"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBE7452-E7CB-4B14-982A-735930A3AC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C128863-4E16-4A9A-9A23-A7DEBF1A56F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F54B42-E965-4F12-9AE0-7F41E72DE63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="771523"/>
+          <a:ext cx="2057400" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D48E4F-3DC7-442D-9CC4-EAEA8A3C2960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006AB56D-8F9E-42F1-AF3D-1DDC96E602FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363199" y="1809749"/>
+          <a:ext cx="2390775" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87A0FF3-40A2-4118-B661-EC5EB744DBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="1685925"/>
+          <a:ext cx="1114425" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン入力フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002B4B5E-954E-4204-81E0-B03BAD85BF29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1809750"/>
+          <a:ext cx="1647825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>漢委員会概要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8236F983-9DDA-4DF3-94B8-30C3187302C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5276849"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BAB6FD-DA72-411C-AF4F-2FA66A660B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="876300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FDB76A-393C-4F4F-A9D4-A3399DCE4AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBB9372-9AF4-48A1-A9BF-97A8F6543818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC4B41C-0E67-4EBD-8774-C25DB93EA433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4810125"/>
+          <a:ext cx="942975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D33664A-BE2F-4080-9DC8-1BD3AD5A4144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5010150"/>
+          <a:ext cx="1028700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBE1E6A-0343-47ED-8488-A3161F203A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5257800"/>
+          <a:ext cx="1800225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2463A307-02E9-4E47-9C5D-E040F35F26F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5219700"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A92160-CE14-4838-AE21-CF74085E8420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C4C2F0-68F7-46A9-BC57-BB426769E5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95720DCC-7920-46D5-863E-1726F1D492D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="771523"/>
+          <a:ext cx="2057400" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5E8ABB-701B-48D6-8642-7620BA92FE32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19CCC72-4B9C-4D55-B89B-A782655ACD19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363199" y="1809749"/>
+          <a:ext cx="2390775" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D390D9E-BBEC-4271-A3F0-8E14DFCA43BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="1685925"/>
+          <a:ext cx="1114425" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン入力フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC03528F-BD41-4E0B-8BB9-38270E3BC4B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1809750"/>
+          <a:ext cx="1647825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>漢委員会概要</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4527,11 +7181,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4547,7 +7201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -4963,14 +7617,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -4978,12 +7632,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -4991,12 +7645,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -5004,12 +7658,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="62"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -5017,12 +7671,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -5030,12 +7684,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="62"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -5043,12 +7697,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="62"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -5056,12 +7710,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -5069,12 +7723,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="62"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5098,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5188,40 +7842,40 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="70"/>
+      <c r="L7" s="63"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="70"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="63"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -5415,17 +8069,17 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -5511,98 +8165,98 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="74" t="s">
-        <v>23</v>
+      <c r="C28" s="67" t="s">
+        <v>31</v>
       </c>
-      <c r="D28" s="74" t="s">
-        <v>26</v>
+      <c r="D28" s="67" t="s">
+        <v>25</v>
       </c>
-      <c r="E28" s="79" t="s">
-        <v>28</v>
+      <c r="E28" s="68" t="s">
+        <v>27</v>
       </c>
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="74" t="s">
-        <v>24</v>
+      <c r="C29" s="67" t="s">
+        <v>23</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>26</v>
+      <c r="D29" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="67" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>26</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="75" t="s">
-        <v>29</v>
+      <c r="G30" s="80" t="s">
+        <v>28</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="78" t="s">
-        <v>31</v>
+      <c r="G31" s="77" t="s">
+        <v>30</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -5610,25 +8264,25 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="80"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -5636,12 +8290,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -5649,12 +8303,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="62"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5676,6 +8330,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="63"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="69"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5B1B7-D8B9-41DD-B402-BAD4013C99BE}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="63"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="69"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705AAB6-402A-476B-AB5E-044F1FA2D361}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C9D418-DF33-4A44-B387-7FB2D78C3507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C616DA-97E9-4D62-B40F-93874331C63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -302,6 +302,33 @@
   <si>
     <t>email</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>privacy.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プライバシーポリシーページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>運営会社ページ</t>
+    <rPh sb="0" eb="4">
+      <t>ウンエイガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインページ</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -5079,139 +5106,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006AB56D-8F9E-42F1-AF3D-1DDC96E602FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363199" y="1809749"/>
-          <a:ext cx="2390775" cy="3152775"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87A0FF3-40A2-4118-B661-EC5EB744DBB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10534650" y="1685925"/>
-          <a:ext cx="1114425" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン入力フォーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6529,8 +6423,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -6548,7 +6442,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1238250" y="1809750"/>
-          <a:ext cx="1647825" cy="381000"/>
+          <a:ext cx="3200400" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6584,7 +6478,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>漢委員会概要</a:t>
+            <a:t>プライバシーポリシー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7201,8 +7095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7752,8 +7646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7766,11 +7660,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8333,8 +8227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8347,11 +8241,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8887,7 +8781,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:L30"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8900,11 +8794,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C616DA-97E9-4D62-B40F-93874331C63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BEFCD7-5A8A-44C2-80A2-629D32790A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -290,16 +290,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ナビゲーションバー、ヘッダー、フッターは別シート参照</t>
-    <rPh sb="20" eb="21">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -330,12 +320,42 @@
     <t>ログインページ</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>入力チェック：未入力チェック、</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：未入力チェック、形式チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー、ヘッダー、フッターはトップページシート参照</t>
+    <rPh sb="29" eb="31">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +450,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -745,7 +773,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,6 +1005,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="見出し 1 2" xfId="2" xr:uid="{49FEC98C-FF9C-4DB5-B9BB-F4700F30535B}"/>
@@ -6280,139 +6326,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19CCC72-4B9C-4D55-B89B-A782655ACD19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363199" y="1809749"/>
-          <a:ext cx="2390775" cy="3152775"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D390D9E-BBEC-4271-A3F0-8E14DFCA43BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10534650" y="1685925"/>
-          <a:ext cx="1114425" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン入力フォーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7095,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7646,8 +7559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7660,11 +7573,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8073,7 +7986,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="67" t="s">
         <v>25</v>
@@ -8084,12 +7997,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="G28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -8107,12 +8022,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="G29" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="79"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -8136,21 +8053,21 @@
       <c r="L30" s="79"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="77" t="s">
-        <v>30</v>
+      <c r="G31" s="86" t="s">
+        <v>39</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -8228,7 +8145,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G28" sqref="G28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8241,11 +8158,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8650,21 +8567,21 @@
       <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="77" t="s">
-        <v>30</v>
+      <c r="G28" s="86" t="s">
+        <v>39</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="79"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -8781,7 +8698,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8794,11 +8711,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -9203,21 +9120,21 @@
       <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="77" t="s">
-        <v>30</v>
+      <c r="G28" s="86" t="s">
+        <v>39</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="79"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BEFCD7-5A8A-44C2-80A2-629D32790A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BECB15-9DA7-41CD-AF39-EFE8F6C290E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -18,55 +18,75 @@
     <sheet name="ログインページ" sheetId="4" r:id="rId3"/>
     <sheet name="運営会社ページ" sheetId="5" r:id="rId4"/>
     <sheet name="プライバシーポリシーページ" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="アカウント設定ページ" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="a" localSheetId="5">#REF!</definedName>
     <definedName name="a" localSheetId="4">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
+    <definedName name="aaa" localSheetId="5">#REF!</definedName>
     <definedName name="aaa" localSheetId="4">#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
+    <definedName name="aaaa" localSheetId="5">#REF!</definedName>
     <definedName name="aaaa" localSheetId="4">#REF!</definedName>
     <definedName name="aaaa">#REF!</definedName>
+    <definedName name="bb">#REF!</definedName>
+    <definedName name="cc">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
+    <definedName name="あああ" localSheetId="5">#REF!</definedName>
     <definedName name="あああ">#REF!</definedName>
+    <definedName name="ああああ" localSheetId="5">#REF!</definedName>
     <definedName name="ああああ">#REF!</definedName>
+    <definedName name="プライバシーポリシー" localSheetId="5">#REF!</definedName>
     <definedName name="プライバシーポリシー">#REF!</definedName>
+    <definedName name="プライページ２" localSheetId="5">#REF!</definedName>
     <definedName name="プライページ２">#REF!</definedName>
+    <definedName name="ログインページ漢" localSheetId="5">#REF!</definedName>
     <definedName name="ログインページ漢" localSheetId="4">#REF!</definedName>
     <definedName name="ログインページ漢">#REF!</definedName>
   </definedNames>
@@ -80,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -350,12 +370,112 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>プロフィール情報変更ページ</t>
+    <rPh sb="6" eb="10">
+      <t>ジョウホウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス変更ページ</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード変更ページ</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント削除ページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、プロフィール情報変更ページへ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、メールアドレス変更ページへ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、パスワード変更ページへ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、アカウント削除ページへ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +575,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -773,7 +909,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,15 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1020,7 +1147,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6392,6 +6537,1551 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             <a:t>プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C2FF0F-D7AA-40BF-8C8D-A9969E81CFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5276849"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F333E0-7CE0-4FF6-A088-3709A2855845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="876300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23420C0F-4945-474B-B905-2B3095E24DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>アカウント設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC75E5A-BCB2-4164-AB23-B409AC35531F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682CE74A-A3AB-4028-9ED9-64F7A290E697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4810125"/>
+          <a:ext cx="942975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1106BB-6DF7-43B7-B21E-6501DE40CD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5010150"/>
+          <a:ext cx="1028700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A6CE36-78A6-4AA9-8702-843A9D8DFFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5257800"/>
+          <a:ext cx="1800225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5439B516-0B82-4320-9629-1CD22B586F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5219700"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5177CD91-375A-4C37-9645-2F857C0B3F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0143E35C-D536-48A1-8134-AE9091243F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167073C7-8BA7-4A61-804F-987697F42DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="771523"/>
+          <a:ext cx="2057400" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40667A2C-4F67-4D4E-8593-945DE756EA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F2B592-F9C1-46BF-8417-01814C4DF07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="2095500"/>
+          <a:ext cx="7581900" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1442D9-A610-434E-B124-63516E38C5AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="1895475"/>
+          <a:ext cx="2276475" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>アカウント設定一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E2390E-C2BE-4508-9F71-9606A6879E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="2886075"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プロフィール情報変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7691269-B3EE-410C-9A2C-12ECEBD23BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="3600450"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・パスワード変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8510B573-D47B-4A6C-8EBB-5ACD19298FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="3619500"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント削除ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00EF940-6460-44CB-9D31-600FD963C23E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="2876550"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メールアドレス変更ページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7559,8 +9249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7997,14 +9687,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -8041,9 +9731,13 @@
       <c r="D30" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="80" t="s">
+      <c r="E30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="83" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="78"/>
@@ -8060,14 +9754,14 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="82"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -8144,8 +9838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:L28"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8570,18 +10264,26 @@
       <c r="B28" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="86" t="s">
+      <c r="C28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -8602,7 +10304,7 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="80"/>
+      <c r="G30" s="83"/>
       <c r="H30" s="78"/>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
@@ -8697,8 +10399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5B1B7-D8B9-41DD-B402-BAD4013C99BE}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9123,18 +10825,26 @@
       <c r="B28" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="86" t="s">
+      <c r="C28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -9155,7 +10865,7 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="80"/>
+      <c r="G30" s="83"/>
       <c r="H30" s="78"/>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
@@ -9247,6 +10957,615 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EABA258-5907-48F8-981E-DC39398CA4C6}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="63"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="69"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705AAB6-402A-476B-AB5E-044F1FA2D361}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BECB15-9DA7-41CD-AF39-EFE8F6C290E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB5524-C802-4518-84DD-F1B61DB6C10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
@@ -19,75 +19,95 @@
     <sheet name="運営会社ページ" sheetId="5" r:id="rId4"/>
     <sheet name="プライバシーポリシーページ" sheetId="6" r:id="rId5"/>
     <sheet name="アカウント設定ページ" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
+    <sheet name="管理者ページ" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="a" localSheetId="5">#REF!</definedName>
     <definedName name="a" localSheetId="4">#REF!</definedName>
+    <definedName name="a" localSheetId="6">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aaa" localSheetId="5">#REF!</definedName>
     <definedName name="aaa" localSheetId="4">#REF!</definedName>
+    <definedName name="aaa" localSheetId="6">#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
     <definedName name="aaaa" localSheetId="5">#REF!</definedName>
     <definedName name="aaaa" localSheetId="4">#REF!</definedName>
+    <definedName name="aaaa" localSheetId="6">#REF!</definedName>
     <definedName name="aaaa">#REF!</definedName>
+    <definedName name="bb" localSheetId="6">#REF!</definedName>
     <definedName name="bb">#REF!</definedName>
+    <definedName name="cc" localSheetId="6">#REF!</definedName>
     <definedName name="cc">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
     <definedName name="あああ" localSheetId="5">#REF!</definedName>
+    <definedName name="あああ" localSheetId="6">#REF!</definedName>
     <definedName name="あああ">#REF!</definedName>
     <definedName name="ああああ" localSheetId="5">#REF!</definedName>
+    <definedName name="ああああ" localSheetId="6">#REF!</definedName>
     <definedName name="ああああ">#REF!</definedName>
     <definedName name="プライバシーポリシー" localSheetId="5">#REF!</definedName>
+    <definedName name="プライバシーポリシー" localSheetId="6">#REF!</definedName>
     <definedName name="プライバシーポリシー">#REF!</definedName>
     <definedName name="プライページ２" localSheetId="5">#REF!</definedName>
+    <definedName name="プライページ２" localSheetId="6">#REF!</definedName>
     <definedName name="プライページ２">#REF!</definedName>
     <definedName name="ログインページ漢" localSheetId="5">#REF!</definedName>
     <definedName name="ログインページ漢" localSheetId="4">#REF!</definedName>
+    <definedName name="ログインページ漢" localSheetId="6">#REF!</definedName>
     <definedName name="ログインページ漢">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -100,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -470,12 +490,172 @@
     <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>アカウント設定ページ</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>settingAccount.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>admin.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ページ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>マイレージ</t>
+  </si>
+  <si>
+    <t>所持ポイント</t>
+  </si>
+  <si>
+    <t>岡花香</t>
+  </si>
+  <si>
+    <t>yyy@sr-co.co.jp</t>
+  </si>
+  <si>
+    <t>zzz@sr-co.co.jp</t>
+  </si>
+  <si>
+    <t>田畑菊</t>
+    <rPh sb="0" eb="2">
+      <t>タハタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以東人</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下後、「本当に削除しますか？」というアラートを表示し、
+OKを押すと、指定のユーザーのアカウント情報をDB から削除する。
+削除後、「削除しました」のアラートを表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DB内からユーザーのアカウント情報を表示する。</t>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>xxx@sr-co.co.jp</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +777,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,8 +839,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -899,6 +1115,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,7 +1140,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1339,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,14 +1396,83 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3307,15 +3613,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>リサーチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>！</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -3723,7 +4021,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="2705100"/>
+          <a:off x="2914650" y="2705100"/>
           <a:ext cx="1323975" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4187,6 +4485,363 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B09BE8C-76E0-4909-95E2-052E745D06BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420349" y="2495550"/>
+          <a:ext cx="1266826" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1BBE7E-175F-40EA-B975-94B85A7D9CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439399" y="3362325"/>
+          <a:ext cx="1114426" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51467187-2783-458E-A998-3F410B9A0BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="2905124"/>
+          <a:ext cx="2066925" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3612C04-6789-424D-9E42-13619480CEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582275" y="3809999"/>
+          <a:ext cx="2028826" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE52DF5F-2DB0-431E-BDD5-DA26ED0AA632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11182349" y="4305299"/>
+          <a:ext cx="800099" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5038,15 +5693,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>リサーチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>！</a:t>
+            <a:t>漢委員会</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -5365,6 +6012,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A40F19-AD99-40D9-B2D4-2908C5296EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="1666875"/>
+          <a:ext cx="1647825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>漢委員会概要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6154,14 +6871,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6176,8 +6893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658476" y="895350"/>
-          <a:ext cx="1343024" cy="390525"/>
+          <a:off x="10658476" y="990600"/>
+          <a:ext cx="1343024" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6215,18 +6932,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>リサーチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>！</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6543,6 +7252,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D23D8C-4DE5-45B4-A0F4-9D30459E1DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1647825"/>
+          <a:ext cx="2495550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7333,13 +8112,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7354,7 +8133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658476" y="895350"/>
+          <a:off x="10658476" y="923925"/>
           <a:ext cx="1343024" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7393,18 +8172,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>リサーチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>！</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>アカウント設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8082,6 +8853,2066 @@
               </a:solidFill>
             </a:rPr>
             <a:t>・メールアドレス変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD7D78-EBD8-40EA-9AA7-CF6083D5A6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325099" y="2019300"/>
+          <a:ext cx="2438401" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8470ABF4-6C19-4A66-8088-BF2DCAACF3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534651" y="1895475"/>
+          <a:ext cx="1466850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント設定一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50979BA2-0F20-4885-B1FB-5E59F87E06E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10344150" y="2428875"/>
+          <a:ext cx="2400300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プロフィール情報変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437FD113-2267-40D7-807F-56CF0A9B3D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372724" y="2876550"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メールアドレス変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0375331D-523C-47DE-95CF-B1A3F08DCA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382249" y="3733800"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント削除ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B84B084-7CC9-4E2C-B831-C689A213D50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382249" y="3324225"/>
+          <a:ext cx="2352675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・パスワード変更ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27123461-511E-4856-A9FD-4050C80E487A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5276849"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73F3265-210A-41EA-A713-DEAC18FD9B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="876300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5A1C32-2403-4873-B12A-26D61B5D8D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>管理者ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BB53AE-ED14-4576-A890-DA119043569D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD7C939-57C9-485A-9C0A-CBC00404C2A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4810125"/>
+          <a:ext cx="942975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21C4EF4-5EA5-4FB0-B85B-1AA55FEFBDB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5010150"/>
+          <a:ext cx="1028700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEF43E1-9F6B-497E-84D7-D4AEA4E7ECD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5257800"/>
+          <a:ext cx="1800225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E109B515-67F4-4447-8528-6E952996F975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5219700"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A03674-F37F-4CEC-ACDB-2A17050D5B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BD9ECE-C32F-471F-A7F5-17C636A8C22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>管理者ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB71882C-70FA-458A-BB3B-75A68DA89E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="771523"/>
+          <a:ext cx="2057400" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FA162A-5E76-41BC-8896-DF93B67A9FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C44836-3394-4EE5-B059-FF78773079C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419226" y="2066925"/>
+          <a:ext cx="2047874" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アカウント情報一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB3A0EC-EA73-4298-9023-005D7AB3AC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581901" y="3000375"/>
+          <a:ext cx="666750" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFC06D3-470C-4656-BF24-527022C08F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="3476625"/>
+          <a:ext cx="666750" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1251DE-5AE8-4EB5-8EBB-5DD64CEDB559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="3981450"/>
+          <a:ext cx="666750" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663E8933-4DEC-4B1A-BA13-8DC570EE1EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="1695449"/>
+          <a:ext cx="2047874" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アカウント情報一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAC688B-182E-46E1-9A47-1C1339ECBF8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="2619375"/>
+          <a:ext cx="1990725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>アカウント情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303FE513-D89F-4D0A-B048-611CA88EEE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="4010025"/>
+          <a:ext cx="666750" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8678,11 +11509,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8698,7 +11529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -9114,14 +11945,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -9129,12 +11960,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="75"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -9142,12 +11973,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -9155,12 +11986,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -9168,12 +11999,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -9181,12 +12012,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -9194,12 +12025,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -9207,12 +12038,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -9220,12 +12051,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9249,8 +12080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9662,14 +12493,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -9687,14 +12518,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -9712,14 +12543,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="G29" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -9737,31 +12568,39 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="84" t="s">
+      <c r="C31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -9769,12 +12608,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -9782,12 +12621,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -9795,12 +12634,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -9808,12 +12647,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9838,8 +12677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10251,14 +13090,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -10276,14 +13115,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -10291,12 +13130,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -10304,12 +13143,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -10317,12 +13156,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -10330,12 +13169,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -10343,12 +13182,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -10356,12 +13195,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -10369,12 +13208,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10399,8 +13238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5B1B7-D8B9-41DD-B402-BAD4013C99BE}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:L28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10812,14 +13651,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -10837,14 +13676,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -10852,12 +13691,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -10865,12 +13704,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -10878,12 +13717,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -10891,12 +13730,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -10904,12 +13743,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -10917,12 +13756,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -10930,12 +13769,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10960,8 +13799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EABA258-5907-48F8-981E-DC39398CA4C6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10974,11 +13813,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11373,17 +14212,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -11401,14 +14240,14 @@
       <c r="G28" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="71" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -11426,14 +14265,14 @@
       <c r="G29" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="67" t="s">
@@ -11451,14 +14290,14 @@
       <c r="G30" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="71" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="67" t="s">
@@ -11476,11 +14315,11 @@
       <c r="G31" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67" t="s">
@@ -11498,14 +14337,14 @@
       <c r="F32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -11513,12 +14352,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -11526,12 +14365,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -11539,12 +14378,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11566,6 +14405,714 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D20170-F01B-4B31-AF9B-91D0660D8EB6}">
+  <dimension ref="A2:Y35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="63"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="98">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="97"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="98">
+        <v>2</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="98">
+        <v>3</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="7"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="93"/>
+    </row>
+    <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
+    </row>
+    <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+    </row>
+    <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88"/>
+    </row>
+    <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
+    </row>
+    <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="71"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+    </row>
+    <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
+    </row>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="69"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705AAB6-402A-476B-AB5E-044F1FA2D361}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB5524-C802-4518-84DD-F1B61DB6C10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59434919-1F16-4E1D-9579-752BD7718FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -619,10 +619,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -648,6 +644,24 @@
   </si>
   <si>
     <t>xxx@sr-co.co.jp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アラート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント情報を削除する。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1140,7 +1154,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1359,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,49 +1461,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,26 +1491,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11509,11 +11532,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11945,14 +11968,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -11960,12 +11983,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="75"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -11973,12 +11996,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -11986,12 +12009,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -11999,12 +12022,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12012,12 +12035,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -12025,12 +12048,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12038,12 +12061,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12051,12 +12074,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12080,8 +12103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E514F-3113-44CA-B2F2-EB005F6A789E}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12493,14 +12516,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -12518,14 +12541,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -12543,14 +12566,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -12568,14 +12591,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="67" t="s">
@@ -12593,14 +12616,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12608,12 +12631,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -12621,12 +12644,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12634,12 +12657,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12647,12 +12670,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12677,8 +12700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13090,14 +13113,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13115,14 +13138,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13130,12 +13153,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13143,12 +13166,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13156,12 +13179,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="97"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13169,12 +13192,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13182,12 +13205,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13195,12 +13218,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13208,12 +13231,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13651,14 +13674,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13676,14 +13699,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13691,12 +13714,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13704,12 +13727,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13717,12 +13740,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="97"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13730,12 +13753,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13743,12 +13766,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13756,12 +13779,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13769,12 +13792,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13799,7 +13822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EABA258-5907-48F8-981E-DC39398CA4C6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -14212,14 +14235,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="70" t="s">
@@ -14237,14 +14260,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="71" t="s">
@@ -14262,14 +14285,14 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="89" t="s">
+      <c r="G29" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="71" t="s">
@@ -14287,14 +14310,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="89" t="s">
+      <c r="G30" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="71" t="s">
@@ -14312,14 +14335,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67" t="s">
@@ -14337,14 +14360,14 @@
       <c r="F32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="86" t="s">
+      <c r="G32" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -14352,12 +14375,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -14365,12 +14388,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -14378,12 +14401,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14408,8 +14431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D20170-F01B-4B31-AF9B-91D0660D8EB6}">
   <dimension ref="A2:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14569,14 +14592,14 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="93"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="N11" s="7"/>
@@ -14586,25 +14609,25 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
-      <c r="C12" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="99" t="s">
+      <c r="C12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="85" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="8"/>
@@ -14617,25 +14640,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="98">
+      <c r="C13" s="106">
         <v>1</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="109" t="s">
+      <c r="F13" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="107" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="8"/>
@@ -14648,16 +14671,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="97"/>
+      <c r="L14" s="79"/>
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -14665,25 +14688,25 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="98">
+      <c r="C15" s="106">
         <v>2</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="107" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="107" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="8"/>
@@ -14696,13 +14719,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="112"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -14713,25 +14736,25 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="98">
+      <c r="C17" s="106">
         <v>3</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="107" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="107" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="8"/>
@@ -14744,26 +14767,26 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="112"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="90"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="93"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="75"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
@@ -14781,11 +14804,11 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="9"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
       <c r="Y19" s="8"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.4">
@@ -14805,8 +14828,8 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="9"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="96"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="78"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -14828,8 +14851,8 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="9"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="96"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="78"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -14874,8 +14897,8 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="49"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="96"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="78"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
@@ -14891,7 +14914,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="92"/>
+      <c r="X24" s="74"/>
       <c r="Y24" s="8"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.4">
@@ -14923,17 +14946,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -14948,24 +14971,24 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
+      <c r="G28" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="108" t="s">
-        <v>69</v>
+      <c r="B29" s="87" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E29" s="67" t="s">
         <v>49</v>
@@ -14973,52 +14996,64 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
+      <c r="G29" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
     </row>
     <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="115"/>
+    </row>
+    <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G31" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
-    </row>
-    <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="71"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67"/>
@@ -15026,12 +15061,12 @@
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -15039,12 +15074,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -15052,12 +15087,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -15065,32 +15100,15 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
@@ -15102,8 +15120,25 @@
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59434919-1F16-4E1D-9579-752BD7718FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621B4DD-B56D-468B-8A35-F714704E501E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="プライバシーポリシーページ" sheetId="6" r:id="rId5"/>
     <sheet name="アカウント設定ページ" sheetId="7" r:id="rId6"/>
     <sheet name="管理者ページ" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId8"/>
+    <sheet name="ランク" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="a" localSheetId="5">#REF!</definedName>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -664,6 +664,178 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>地球１周級</t>
+    <rPh sb="0" eb="2">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイレージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４万km</t>
+    <rPh sb="1" eb="2">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月まで級</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>３６万km</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フルマラソン級</t>
+    <rPh sb="6" eb="7">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>琵琶湖１周級</t>
+    <rPh sb="0" eb="3">
+      <t>ビワコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２００km</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４２km</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本縦断級</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンジュウダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本１周級</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１万２千km</t>
+    <rPh sb="1" eb="2">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>北海道１周級</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５００km</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２５００km</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アマゾン川級</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>６４００km</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>万里の長城級</t>
+    <rPh sb="0" eb="2">
+      <t>バンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>８８００ｋｍ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>四国１周級</t>
+    <rPh sb="0" eb="2">
+      <t>シコク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１２００ｋｍ</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -860,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1144,6 +1316,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,7 +1343,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,6 +1596,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,6 +1665,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1482,20 +1689,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10796,15 +11000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10819,7 +11023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="2619375"/>
+          <a:off x="10487025" y="2495550"/>
           <a:ext cx="1990725" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11532,11 +11736,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11968,14 +12172,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -11983,12 +12187,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -11996,12 +12200,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -12009,12 +12213,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -12022,12 +12226,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12035,12 +12239,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -12048,12 +12252,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12061,12 +12265,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12074,12 +12278,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12516,14 +12720,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -12541,14 +12745,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="102"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -12566,14 +12770,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -12591,14 +12795,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="101" t="s">
+      <c r="G30" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="67" t="s">
@@ -12616,14 +12820,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="102" t="s">
+      <c r="G31" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12631,12 +12835,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -12644,12 +12848,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12657,12 +12861,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12670,12 +12874,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12700,7 +12904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F91FEA-CD73-426C-82FE-95F3D41CE2D6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -13113,14 +13317,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13138,14 +13342,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13153,12 +13357,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13166,12 +13370,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13179,12 +13383,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13192,12 +13396,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13205,12 +13409,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13218,12 +13422,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13231,12 +13435,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13674,14 +13878,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13699,14 +13903,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13714,12 +13918,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13727,12 +13931,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13740,12 +13944,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13753,12 +13957,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13766,12 +13970,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13779,12 +13983,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13792,12 +13996,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13822,7 +14026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EABA258-5907-48F8-981E-DC39398CA4C6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -14235,14 +14439,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="70" t="s">
@@ -14260,14 +14464,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="105" t="s">
+      <c r="G28" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="71" t="s">
@@ -14285,14 +14489,14 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="106"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="71" t="s">
@@ -14310,14 +14514,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="105" t="s">
+      <c r="G30" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="106"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="71" t="s">
@@ -14335,14 +14539,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="105" t="s">
+      <c r="G31" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67" t="s">
@@ -14360,14 +14564,14 @@
       <c r="F32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="102" t="s">
+      <c r="G32" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -14375,12 +14579,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -14388,12 +14592,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -14401,12 +14605,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14431,8 +14635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D20170-F01B-4B31-AF9B-91D0660D8EB6}">
   <dimension ref="A2:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14640,25 +14844,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="106">
+      <c r="C13" s="108">
         <v>1</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="109" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="8"/>
@@ -14671,13 +14875,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="79"/>
@@ -14688,25 +14892,25 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="106">
+      <c r="C15" s="108">
         <v>2</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="107" t="s">
+      <c r="H15" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="109" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="8"/>
@@ -14719,13 +14923,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -14736,25 +14940,25 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="106">
+      <c r="C17" s="108">
         <v>3</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="G17" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="109" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="8"/>
@@ -14767,13 +14971,13 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
       <c r="J18" s="72"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -14946,14 +15150,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -14971,14 +15175,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="117" t="s">
+      <c r="G28" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -14996,17 +15200,17 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="106"/>
     </row>
     <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="80" t="s">
@@ -15021,14 +15225,14 @@
       <c r="F30" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="114"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="80" t="s">
@@ -15046,14 +15250,14 @@
       <c r="F31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="102" t="s">
+      <c r="G31" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67"/>
@@ -15061,12 +15265,12 @@
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -15074,12 +15278,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -15087,12 +15291,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -15100,15 +15304,29 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
@@ -15125,20 +15343,6 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15149,13 +15353,140 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705AAB6-402A-476B-AB5E-044F1FA2D361}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="120"/>
+      <c r="C2" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="88">
+        <v>2</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="88">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="88">
+        <v>4</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="88">
+        <v>5</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="88">
+        <v>6</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="88">
+        <v>7</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="88">
+        <v>8</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="88">
+        <v>9</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="88">
+        <v>10</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/提出物/秦＿詳細設計書.xlsx
+++ b/提出物/秦＿詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621B4DD-B56D-468B-8A35-F714704E501E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87D993-85A5-4C3C-B2A3-69480D6C8BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="99">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -836,6 +836,20 @@
     <t>１２００ｋｍ</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>お散歩級</t>
+    <rPh sb="1" eb="3">
+      <t>サンポ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>０km</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1343,7 +1357,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1616,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,18 +1694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1689,17 +1706,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11736,11 +11753,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12172,14 +12189,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -12187,12 +12204,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="93"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -12200,12 +12217,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -12213,12 +12230,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="93"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -12226,12 +12243,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="93"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12239,12 +12256,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -12252,12 +12269,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="98"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12265,12 +12282,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12278,12 +12295,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12720,14 +12737,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -12745,14 +12762,14 @@
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="100" t="s">
+      <c r="G28" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="102"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -12770,14 +12787,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -12795,14 +12812,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="67" t="s">
@@ -12820,14 +12837,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12835,12 +12852,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -12848,12 +12865,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12861,12 +12878,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12874,12 +12891,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13317,14 +13334,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13342,14 +13359,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13357,12 +13374,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13370,12 +13387,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13383,12 +13400,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13396,12 +13413,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13409,12 +13426,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13422,12 +13439,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13435,12 +13452,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13878,14 +13895,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -13903,14 +13920,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -13918,12 +13935,12 @@
       <c r="D29" s="67"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -13931,12 +13948,12 @@
       <c r="D30" s="67"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -13944,12 +13961,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -13957,12 +13974,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -13970,12 +13987,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -13983,12 +14000,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -13996,12 +14013,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14439,14 +14456,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="70" t="s">
@@ -14464,14 +14481,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="71" t="s">
@@ -14489,14 +14506,14 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="106"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="71" t="s">
@@ -14514,14 +14531,14 @@
       <c r="F30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="106"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="71" t="s">
@@ -14539,14 +14556,14 @@
       <c r="F31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="107" t="s">
+      <c r="G31" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67" t="s">
@@ -14564,14 +14581,14 @@
       <c r="F32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="106"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -14579,12 +14596,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -14592,12 +14609,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -14605,12 +14622,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14844,25 +14861,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="108">
+      <c r="C13" s="113">
         <v>1</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="114" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="8"/>
@@ -14875,13 +14892,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="79"/>
@@ -14892,25 +14909,25 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="108">
+      <c r="C15" s="113">
         <v>2</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="114" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="8"/>
@@ -14923,13 +14940,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -14940,25 +14957,25 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="108">
+      <c r="C17" s="113">
         <v>3</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="114" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="8"/>
@@ -14971,13 +14988,13 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="72"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -15150,14 +15167,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -15175,14 +15192,14 @@
       <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -15200,14 +15217,14 @@
       <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="106"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
     </row>
     <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="89" t="s">
@@ -15225,14 +15242,14 @@
       <c r="F30" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="80" t="s">
@@ -15250,14 +15267,14 @@
       <c r="F31" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="67"/>
@@ -15265,12 +15282,12 @@
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="106"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="69"/>
@@ -15278,12 +15295,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -15291,12 +15308,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -15304,29 +15321,15 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
@@ -15343,6 +15346,20 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15353,10 +15370,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705AAB6-402A-476B-AB5E-044F1FA2D361}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15365,122 +15382,133 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="120"/>
-      <c r="C2" s="119" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="92"/>
+      <c r="C3" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D3" s="91" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="88">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="90">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="90">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D5" s="88" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="88">
-        <v>2</v>
-      </c>
-      <c r="C4" s="88" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="90">
+        <v>3</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D6" s="88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="88">
-        <v>3</v>
-      </c>
-      <c r="C5" s="88" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="90">
+        <v>4</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D7" s="88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="88">
-        <v>4</v>
-      </c>
-      <c r="C6" s="88" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="90">
+        <v>5</v>
+      </c>
+      <c r="C8" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D8" s="88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="88">
-        <v>5</v>
-      </c>
-      <c r="C7" s="88" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="90">
+        <v>6</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D9" s="88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="88">
-        <v>6</v>
-      </c>
-      <c r="C8" s="122" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="90">
+        <v>7</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D10" s="93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="88">
-        <v>7</v>
-      </c>
-      <c r="C9" s="122" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="90">
+        <v>8</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="88">
-        <v>8</v>
-      </c>
-      <c r="C10" s="88" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="90">
+        <v>9</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D12" s="88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="88">
-        <v>9</v>
-      </c>
-      <c r="C11" s="88" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="90">
+        <v>10</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D13" s="88" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="88">
-        <v>10</v>
-      </c>
-      <c r="C12" s="88" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="90">
+        <v>11</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D14" s="88" t="s">
         <v>80</v>
       </c>
     </row>
